--- a/supplier_discount.xlsx
+++ b/supplier_discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A3376-52D0-4725-BA92-A39049A93EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72157466-155E-4F46-8F35-972E66569166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -569,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>

--- a/supplier_discount.xlsx
+++ b/supplier_discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72157466-155E-4F46-8F35-972E66569166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B84645-F5E7-453A-9E7B-92B436DB47BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,34 +63,34 @@
     <t>tamco</t>
   </si>
   <si>
-    <t>lassa</t>
-  </si>
-  <si>
-    <t>Yokahama</t>
-  </si>
-  <si>
     <t>Thunderer</t>
   </si>
   <si>
-    <t>DoubleCoin</t>
-  </si>
-  <si>
-    <t>Gb corp</t>
-  </si>
-  <si>
-    <t>gresco</t>
+    <t>Pirelli</t>
+  </si>
+  <si>
+    <t>GB Corp</t>
+  </si>
+  <si>
+    <t>Yokohama</t>
+  </si>
+  <si>
+    <t>Sunfull</t>
+  </si>
+  <si>
+    <t>Double Coin</t>
+  </si>
+  <si>
+    <t>Lassa</t>
+  </si>
+  <si>
+    <t>Winda</t>
   </si>
   <si>
     <t>Kumho</t>
   </si>
   <si>
-    <t>Wanda</t>
-  </si>
-  <si>
-    <t>Pirelli</t>
-  </si>
-  <si>
-    <t>SunFull</t>
+    <t>Gresco</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -643,79 +643,79 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
+      <c r="C14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
+      <c r="C15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
+      <c r="C16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>

--- a/supplier_discount.xlsx
+++ b/supplier_discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B84645-F5E7-453A-9E7B-92B436DB47BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809E0EFC-8588-455F-9311-99689849BD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>supplier</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Lassa</t>
-  </si>
-  <si>
-    <t>Winda</t>
   </si>
   <si>
     <t>Kumho</t>
@@ -243,8 +240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C17" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C16" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D99E487A-B959-4420-A8FC-2331F632B19E}" name="supplier" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{036B495C-008D-48D9-9ADF-417438F68F65}" name="discount" dataDxfId="1"/>
@@ -517,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -699,23 +696,12 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>

--- a/supplier_discount.xlsx
+++ b/supplier_discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809E0EFC-8588-455F-9311-99689849BD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD7D998-7A93-4F97-8D60-9F48F7B22B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -588,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>

--- a/supplier_discount.xlsx
+++ b/supplier_discount.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD7D998-7A93-4F97-8D60-9F48F7B22B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5906C626-71E0-447D-A6F3-0350C834F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>supplier</t>
   </si>
@@ -88,6 +99,9 @@
   </si>
   <si>
     <t>Gresco</t>
+  </si>
+  <si>
+    <t>Tamco</t>
   </si>
 </sst>
 </file>
@@ -240,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C16" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C17" xr:uid="{652F0666-2F5A-4C2C-A499-508ACBDF85B4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D99E487A-B959-4420-A8FC-2331F632B19E}" name="supplier" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{036B495C-008D-48D9-9ADF-417438F68F65}" name="discount" dataDxfId="1"/>
@@ -514,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -696,12 +710,23 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>

--- a/supplier_discount.xlsx
+++ b/supplier_discount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egypt\final_prica_calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5906C626-71E0-447D-A6F3-0350C834F6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3864B2-8B09-4FCF-B095-1BCA6B6A2D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
